--- a/results/[5_energy_congestion]_#_inv_capacity.xlsx
+++ b/results/[5_energy_congestion]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04352982185017581</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006505714095860589</v>
+        <v>0.003837439598571412</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1672774492743878</v>
+        <v>0.3718167378372522</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374919</v>
+        <v>0.2494892361375043</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932329000000002</v>
+        <v>0.3694142004502854</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0.5971552000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04554729999999999</v>
+        <v>0.0822565</v>
       </c>
       <c r="N2" t="n">
-        <v>4.746113324497123</v>
+        <v>12.82009457445577</v>
       </c>
       <c r="O2" t="n">
-        <v>3.649165963789681</v>
+        <v>3.536987855065788</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1957842461425876</v>
+        <v>0.004836069939105167</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04878002426392428</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.385736400492253</v>
+        <v>0.2223185247529475</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689066911829629</v>
+        <v>0.4164466220504326</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503714</v>
+        <v>0.1199827757707056</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1457066166666667</v>
+        <v>0.04735360000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>9.291619108656477</v>
+        <v>5.453610051398019</v>
       </c>
       <c r="O2" t="n">
-        <v>4.639064326839051</v>
+        <v>2.355488407130716</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2313241219271673</v>
+        <v>0.08761853486597547</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.02806921357332795</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8456199238177564</v>
+        <v>0.1716889961803926</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.619486840013555</v>
+        <v>0.4658448658569125</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8146361766531087</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3074467198854178</v>
+        <v>0.04793623333333344</v>
       </c>
       <c r="N2" t="n">
-        <v>18.65083708246595</v>
+        <v>7.992614123745049</v>
       </c>
       <c r="O2" t="n">
-        <v>18.16102535403466</v>
+        <v>4.912910293249987</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_inv_capacity.xlsx
+++ b/results/[5_energy_congestion]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003837439598571412</v>
+        <v>0.003676399999999996</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3718167378372522</v>
+        <v>0.3723754890751533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375043</v>
+        <v>0.2494892361375067</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3694142004502854</v>
+        <v>0.3669021</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5971552000000001</v>
+        <v>0.5961429402307628</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0822565</v>
+        <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.82009457445577</v>
+        <v>12.86359876492604</v>
       </c>
       <c r="O2" t="n">
-        <v>3.536987855065788</v>
+        <v>3.475337169561455</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004836069939105167</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04878002426392428</v>
+        <v>0.07281114770798788</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2223185247529475</v>
+        <v>0.3627219270793604</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4164466220504326</v>
+        <v>0.5714296575626279</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1199827757707056</v>
+        <v>0.2825543688732762</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04735360000000001</v>
+        <v>0.08142233333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>5.453610051398019</v>
+        <v>9.205466401728625</v>
       </c>
       <c r="O2" t="n">
-        <v>2.355488407130716</v>
+        <v>3.854761828603918</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08761853486597547</v>
+        <v>0.09609171633503288</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02806921357332795</v>
+        <v>0.0212387639240465</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1716889961803926</v>
+        <v>0.1606057496492759</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4658448658569125</v>
+        <v>0.4483134947103286</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04793623333333344</v>
+        <v>0.04710558333333337</v>
       </c>
       <c r="N2" t="n">
-        <v>7.992614123745049</v>
+        <v>8.895716172977181</v>
       </c>
       <c r="O2" t="n">
-        <v>4.912910293249987</v>
+        <v>5.219585966335345</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_inv_capacity.xlsx
+++ b/results/[5_energy_congestion]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04352982185017581</v>
+        <v>0.1774173491026328</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006505714095860589</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.698886550485734</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1672774492743878</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3247024241048815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374919</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4932329000000002</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04554729999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.746113324497123</v>
+        <v>7.708072422903064</v>
       </c>
       <c r="O2" t="n">
-        <v>3.649165963789681</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1957842461425876</v>
+        <v>0.1781970381805954</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220795686899256</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.385736400492253</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2403690565694545</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689066911829629</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503714</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1457066166666667</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.291619108656477</v>
+        <v>30.50653603520162</v>
       </c>
       <c r="O2" t="n">
-        <v>4.639064326839051</v>
+        <v>6.64631114309088</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2313241219271673</v>
+        <v>0.8731641567314337</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.62872319580625</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8456199238177564</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.05003436703768516</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222264</v>
       </c>
       <c r="I2" t="n">
-        <v>1.619486840013555</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8146361766531087</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3074467198854178</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.65083708246595</v>
+        <v>22.02687265062103</v>
       </c>
       <c r="O2" t="n">
-        <v>18.16102535403466</v>
+        <v>7.285821150245228</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[5_energy_congestion]_#_inv_capacity.xlsx
+++ b/results/[5_energy_congestion]_#_inv_capacity.xlsx
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>30.50653603520162</v>
+        <v>30.50653603520163</v>
       </c>
       <c r="O2" t="n">
         <v>6.64631114309088</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05003436703768516</v>
+        <v>0.05003436703768505</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1261817221222264</v>
+        <v>0.1261817221222323</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.02687265062103</v>
+        <v>22.02687265062104</v>
       </c>
       <c r="O2" t="n">
-        <v>7.285821150245228</v>
+        <v>7.285821150244944</v>
       </c>
     </row>
   </sheetData>

--- a/results/[5_energy_congestion]_#_inv_capacity.xlsx
+++ b/results/[5_energy_congestion]_#_inv_capacity.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375067</v>
+        <v>0.2494892361374745</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5961429402307628</v>
+        <v>0.5961429402307626</v>
       </c>
       <c r="M2" t="n">
         <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.86359876492604</v>
+        <v>12.86359876492667</v>
       </c>
       <c r="O2" t="n">
-        <v>3.475337169561455</v>
+        <v>3.475337169561451</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07281114770798788</v>
+        <v>0.07281114770795863</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3627219270793604</v>
+        <v>0.3627219270793897</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2825543688732762</v>
+        <v>0.2825543688732763</v>
       </c>
       <c r="M2" t="n">
         <v>0.08142233333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>9.205466401728625</v>
+        <v>9.205466401728556</v>
       </c>
       <c r="O2" t="n">
-        <v>3.854761828603918</v>
+        <v>3.854761828603928</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09609171633503288</v>
+        <v>0.09609171633504297</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0212387639240465</v>
+        <v>0.02123876392407709</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1606057496492759</v>
+        <v>0.1606057496492452</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4483134947103286</v>
+        <v>0.4483134947103272</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.04710558333333337</v>
       </c>
       <c r="N2" t="n">
-        <v>8.895716172977181</v>
+        <v>8.89571617297662</v>
       </c>
       <c r="O2" t="n">
-        <v>5.219585966335345</v>
+        <v>5.219585966335373</v>
       </c>
     </row>
   </sheetData>
